--- a/fossilSalamanders/fossilSalamanders_BS+E.xlsx
+++ b/fossilSalamanders/fossilSalamanders_BS+E.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="397">
   <si>
     <t>head_width</t>
   </si>
@@ -1185,6 +1185,39 @@
   </si>
   <si>
     <t>PeerJ</t>
+  </si>
+  <si>
+    <t>Ranodon</t>
+  </si>
+  <si>
+    <t>cf.sibiricus</t>
+  </si>
+  <si>
+    <t>Kiikbai</t>
+  </si>
+  <si>
+    <t>Ranodon_sibiricus</t>
+  </si>
+  <si>
+    <t>Averianovetal_1995</t>
+  </si>
+  <si>
+    <t>Palaont. Z.</t>
+  </si>
+  <si>
+    <t>sp.</t>
+  </si>
+  <si>
+    <t>ZIN PH 1/181</t>
+  </si>
+  <si>
+    <t>Khalagay</t>
+  </si>
+  <si>
+    <t>Syromyatnikova</t>
+  </si>
+  <si>
+    <t>Russian J of Herpetology</t>
   </si>
 </sst>
 </file>
@@ -1523,12 +1556,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="N72" sqref="N72"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7759,6 +7792,157 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>386</v>
+      </c>
+      <c r="B91" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>388</v>
+      </c>
+      <c r="G91">
+        <v>43.384999999999998</v>
+      </c>
+      <c r="H91">
+        <v>77.157700000000006</v>
+      </c>
+      <c r="I91" t="s">
+        <v>219</v>
+      </c>
+      <c r="K91" t="s">
+        <v>200</v>
+      </c>
+      <c r="L91" t="s">
+        <v>175</v>
+      </c>
+      <c r="M91" t="s">
+        <v>175</v>
+      </c>
+      <c r="N91" t="s">
+        <v>389</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>390</v>
+      </c>
+      <c r="R91" t="s">
+        <v>390</v>
+      </c>
+      <c r="S91" t="s">
+        <v>391</v>
+      </c>
+      <c r="T91">
+        <v>1995</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91" t="s">
+        <v>380</v>
+      </c>
+      <c r="W91" t="s">
+        <v>380</v>
+      </c>
+      <c r="X91" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z91">
+        <v>1</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" t="s">
+        <v>392</v>
+      </c>
+      <c r="C92" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="E92">
+        <v>13.82</v>
+      </c>
+      <c r="F92" t="s">
+        <v>394</v>
+      </c>
+      <c r="G92">
+        <v>53.145000000000003</v>
+      </c>
+      <c r="H92">
+        <v>107.33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>230</v>
+      </c>
+      <c r="K92" t="s">
+        <v>200</v>
+      </c>
+      <c r="L92" t="s">
+        <v>175</v>
+      </c>
+      <c r="M92" t="s">
+        <v>175</v>
+      </c>
+      <c r="N92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>395</v>
+      </c>
+      <c r="R92" t="s">
+        <v>395</v>
+      </c>
+      <c r="S92" t="s">
+        <v>396</v>
+      </c>
+      <c r="T92">
+        <v>2014</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92" t="s">
+        <v>380</v>
+      </c>
+      <c r="W92" t="s">
+        <v>380</v>
+      </c>
+      <c r="X92" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
